--- a/biology/Botanique/Clintonie_uniflore/Clintonie_uniflore.xlsx
+++ b/biology/Botanique/Clintonie_uniflore/Clintonie_uniflore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clintonie à une fleur
 Clintonia uniflora, en français la Clintonie uniflore ou Clintonie à une fleur, est une espèce de plantes vivaces de la famille des Lys, présente dans les régions montagneuses de l'ouest de l'Amérique du Nord.
@@ -512,9 +524,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Clintonie uniflore est présente en montagne de la Californie jusque dans la province canadienne de la Colombie-Britannique et même en Alaska[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Clintonie uniflore est présente en montagne de la Californie jusque dans la province canadienne de la Colombie-Britannique et même en Alaska.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante pousse au départ d'un rhizome. Elle apprécie les sous-bois des forêts de conifères sous climat tempéré. Elle se caractérise par seulement deux ou trois feuilles de plusieurs centimètres à la base de sa tige. La fleur unique, qui possède six tépales blancs, est située au sommet de la tige. Le fruit est une baie bleue d'un centimètre de diamètre environ.
 </t>
